--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value403.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value403.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.167609441871644</v>
+        <v>3.442728996276855</v>
       </c>
       <c r="B1">
-        <v>1.430512029023136</v>
+        <v>2.595495700836182</v>
       </c>
       <c r="C1">
-        <v>1.98685428496149</v>
+        <v>1.992204308509827</v>
       </c>
       <c r="D1">
-        <v>3.763485619407064</v>
+        <v>1.879971742630005</v>
       </c>
       <c r="E1">
-        <v>1.335562963418344</v>
+        <v>1.708329081535339</v>
       </c>
     </row>
   </sheetData>
